--- a/xlsx/地理坐标_intext.xlsx
+++ b/xlsx/地理坐标_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经度</t>
   </si>
   <si>
-    <t>政策_政策_美國_地理坐标</t>
+    <t>政策_政策_美国_地理坐标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%BA%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%BA%A7%E6%A8%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>地理座標系統</t>
+    <t>地理座标系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%B0%E6%B5%8B%E9%87%8F%E7%B3%BB%E7%BB%9F</t>

--- a/xlsx/地理坐标_intext.xlsx
+++ b/xlsx/地理坐标_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经度</t>
   </si>
   <si>
-    <t>政策_政策_美國_地理坐标</t>
+    <t>体育运动_体育运动_奥林匹亚_地理坐标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%BA%A6</t>
